--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDAA68F-6442-4B84-9E66-F4A640178EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EFC631-A4F6-447D-BD04-F106AB315D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="390" windowWidth="38175" windowHeight="15240" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>CEO: Jen-Hsun Huang</t>
   </si>
   <si>
-    <t>Fouded: 1993</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>OEM and other Growth</t>
+  </si>
+  <si>
+    <t>Fouded: 1993, Founders: Jen-Hsun Huang,  Chris Malachowsky, Curtis R. Priem</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -816,15 +816,15 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -880,27 +880,27 @@
         <v>19</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>4284</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>3357</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>927</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>2240</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
         <v>295</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2">
         <v>296</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>77</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8">
         <v>7192</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>2544</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ref="C12:G12" si="2">+C10-C11</f>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>1875</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>633</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ref="C16" si="6">+C12-C13-C14-C15</f>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
         <v>150</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
         <v>66</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
         <v>-15</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ref="C20:F20" si="15">+C16+C17-C18+C19</f>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2">
         <v>166</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:G22" si="18">+C20-C21</f>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" ref="C24:G24" si="21">C22/C25</f>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="10">
         <f t="shared" ref="C35:G35" si="31">C12/C10</f>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="10">
         <f t="shared" ref="C36:G36" si="34">C16/C10</f>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="10">
         <f t="shared" ref="C37:G37" si="37">C21/C20</f>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FBD0F6-916D-4B3E-A2F7-A652409E24C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7B1BC7-9EE9-49B1-81E8-9796C931A14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="5">
-        <v>138.83000000000001</v>
+        <v>173.2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
       </c>
       <c r="I4" s="2">
         <f>I2*I3</f>
-        <v>3393144.0300000003</v>
+        <v>4233181.2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
       </c>
       <c r="I7" s="2">
         <f>I4-I5+I6</f>
-        <v>3347917.0300000003</v>
+        <v>4187954.2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>14514</v>
       </c>
       <c r="F3" s="2">
-        <f>+AN3-SUM(C3:E3)</f>
+        <f t="shared" ref="F3:F11" si="0">+AN3-SUM(C3:E3)</f>
         <v>18404</v>
       </c>
       <c r="G3" s="2">
@@ -1075,7 +1075,7 @@
         <v>30771</v>
       </c>
       <c r="J3" s="2">
-        <f>+AO3-SUM(G3:I3)</f>
+        <f t="shared" ref="J3:J11" si="1">+AO3-SUM(G3:I3)</f>
         <v>35580</v>
       </c>
       <c r="K3" s="2">
@@ -1133,7 +1133,7 @@
         <v>11908</v>
       </c>
       <c r="F4" s="2">
-        <f>+AN4-SUM(C4:E4)</f>
+        <f t="shared" si="0"/>
         <v>15073</v>
       </c>
       <c r="G4" s="2">
@@ -1146,7 +1146,7 @@
         <v>27644</v>
       </c>
       <c r="J4" s="2">
-        <f>+AO4-SUM(G4:I4)</f>
+        <f t="shared" si="1"/>
         <v>32556</v>
       </c>
       <c r="K4" s="2">
@@ -1204,7 +1204,7 @@
         <v>2606</v>
       </c>
       <c r="F5" s="2">
-        <f>+AN5-SUM(C5:E5)</f>
+        <f t="shared" si="0"/>
         <v>3331</v>
       </c>
       <c r="G5" s="2">
@@ -1217,7 +1217,7 @@
         <v>3127</v>
       </c>
       <c r="J5" s="2">
-        <f>+AO5-SUM(G5:I5)</f>
+        <f t="shared" si="1"/>
         <v>3024</v>
       </c>
       <c r="K5" s="2">
@@ -1275,7 +1275,7 @@
         <v>2856</v>
       </c>
       <c r="F6" s="2">
-        <f>+AN6-SUM(C6:E6)</f>
+        <f t="shared" si="0"/>
         <v>2865</v>
       </c>
       <c r="G6" s="2">
@@ -1288,7 +1288,7 @@
         <v>3279</v>
       </c>
       <c r="J6" s="2">
-        <f>+AO6-SUM(G6:I6)</f>
+        <f t="shared" si="1"/>
         <v>2544</v>
       </c>
       <c r="K6" s="2">
@@ -1346,7 +1346,7 @@
         <v>416</v>
       </c>
       <c r="F7" s="2">
-        <f>+AN7-SUM(C7:E7)</f>
+        <f t="shared" si="0"/>
         <v>463</v>
       </c>
       <c r="G7" s="2">
@@ -1359,7 +1359,7 @@
         <v>486</v>
       </c>
       <c r="J7" s="2">
-        <f>+AO7-SUM(G7:I7)</f>
+        <f t="shared" si="1"/>
         <v>511</v>
       </c>
       <c r="K7" s="2">
@@ -1417,7 +1417,7 @@
         <v>261</v>
       </c>
       <c r="F8" s="2">
-        <f>+AN8-SUM(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="G8" s="2">
@@ -1430,7 +1430,7 @@
         <v>449</v>
       </c>
       <c r="J8" s="2">
-        <f>+AO8-SUM(G8:I8)</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="K8" s="2">
@@ -1488,7 +1488,7 @@
         <v>73</v>
       </c>
       <c r="F9" s="2">
-        <f>+AN9-SUM(C9:E9)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="G9" s="2">
@@ -1501,7 +1501,7 @@
         <v>97</v>
       </c>
       <c r="J9" s="2">
-        <f>+AO9-SUM(G9:I9)</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="K9" s="2">
@@ -1559,7 +1559,7 @@
         <v>18120</v>
       </c>
       <c r="F10" s="8">
-        <f>+AN10-SUM(C10:E10)</f>
+        <f t="shared" si="0"/>
         <v>22103</v>
       </c>
       <c r="G10" s="8">
@@ -1572,7 +1572,7 @@
         <v>35082</v>
       </c>
       <c r="J10" s="8">
-        <f>+AO10-SUM(G10:I10)</f>
+        <f t="shared" si="1"/>
         <v>39331</v>
       </c>
       <c r="K10" s="8">
@@ -1685,7 +1685,7 @@
         <v>4720</v>
       </c>
       <c r="F11" s="2">
-        <f>+AN11-SUM(C11:E11)</f>
+        <f t="shared" si="0"/>
         <v>5312</v>
       </c>
       <c r="G11" s="2">
@@ -1698,7 +1698,7 @@
         <v>8926</v>
       </c>
       <c r="J11" s="2">
-        <f>+AO11-SUM(G11:I11)</f>
+        <f t="shared" si="1"/>
         <v>10609</v>
       </c>
       <c r="K11" s="2">
@@ -1802,23 +1802,23 @@
         <v>23</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ref="C12:G12" si="0">+C10-C11</f>
+        <f t="shared" ref="C12:G12" si="2">+C10-C11</f>
         <v>4648</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9462</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13400</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16791</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20406</v>
       </c>
       <c r="H12" s="2">
@@ -1826,15 +1826,15 @@
         <v>22574</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ref="I12:K12" si="1">+I10-I11</f>
+        <f t="shared" ref="I12:K12" si="3">+I10-I11</f>
         <v>26156</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28722</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26668</v>
       </c>
       <c r="L12" s="2"/>
@@ -1915,11 +1915,11 @@
         <v>15356</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" ref="AN12:AO12" si="2">+AN10-AN11</f>
+        <f t="shared" ref="AN12:AO12" si="4">+AN10-AN11</f>
         <v>44301</v>
       </c>
       <c r="AO12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>97858</v>
       </c>
       <c r="AP12" s="2"/>
@@ -2298,39 +2298,39 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16" si="3">+C12-C13-C14-C15</f>
+        <f t="shared" ref="C16" si="5">+C12-C13-C14-C15</f>
         <v>2140</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16" si="4">+D12-D13-D14-D15</f>
+        <f t="shared" ref="D16" si="6">+D12-D13-D14-D15</f>
         <v>6800</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ref="E16" si="5">+E12-E13-E14-E15</f>
+        <f t="shared" ref="E16" si="7">+E12-E13-E14-E15</f>
         <v>10417</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ref="F16" si="6">+F12-F13-F14-F15</f>
+        <f t="shared" ref="F16" si="8">+F12-F13-F14-F15</f>
         <v>13615</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" ref="G16" si="7">+G12-G13-G14-G15</f>
+        <f t="shared" ref="G16" si="9">+G12-G13-G14-G15</f>
         <v>16909</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" ref="H16" si="8">+H12-H13-H14-H15</f>
+        <f t="shared" ref="H16" si="10">+H12-H13-H14-H15</f>
         <v>18642</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16" si="9">+I12-I13-I14-I15</f>
+        <f t="shared" ref="I16" si="11">+I12-I13-I14-I15</f>
         <v>21869</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ref="J16:K16" si="10">+J12-J13-J14-J15</f>
+        <f t="shared" ref="J16:K16" si="12">+J12-J13-J14-J15</f>
         <v>24033</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21638</v>
       </c>
       <c r="L16" s="2"/>
@@ -2407,11 +2407,11 @@
         <v>10040</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" ref="AM16:AN16" si="11">+AM12-AM13-AM14-AM15</f>
+        <f t="shared" ref="AM16:AN16" si="13">+AM12-AM13-AM14-AM15</f>
         <v>4224</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32972</v>
       </c>
       <c r="AO16" s="2">
@@ -2812,19 +2812,19 @@
         <v>30</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20:F20" si="12">+C16+C17-C18+C19</f>
+        <f t="shared" ref="C20:F20" si="14">+C16+C17-C18+C19</f>
         <v>2209</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6981</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10522</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14106</v>
       </c>
       <c r="G20" s="2">
@@ -2836,15 +2836,15 @@
         <v>19214</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" ref="I20:K20" si="13">+I16+I17-I18+I19</f>
+        <f t="shared" ref="I20:K20" si="15">+I16+I17-I18+I19</f>
         <v>22316</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>25217</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21910</v>
       </c>
       <c r="L20" s="2"/>
@@ -2921,11 +2921,11 @@
         <v>9752</v>
       </c>
       <c r="AM20" s="2">
-        <f t="shared" ref="AM20:AN20" si="14">+AM16-AM18+AM17+AM19</f>
+        <f t="shared" ref="AM20:AN20" si="16">+AM16-AM18+AM17+AM19</f>
         <v>4181</v>
       </c>
       <c r="AN20" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>33818</v>
       </c>
       <c r="AO20" s="2">
@@ -3074,23 +3074,23 @@
         <v>32</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:G22" si="15">+C20-C21</f>
+        <f t="shared" ref="C22:G22" si="17">+C20-C21</f>
         <v>2043</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6188</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9243</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12286</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14881</v>
       </c>
       <c r="H22" s="2">
@@ -3098,15 +3098,15 @@
         <v>16599</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" ref="I22:K22" si="16">+I20-I21</f>
+        <f t="shared" ref="I22:K22" si="18">+I20-I21</f>
         <v>19309</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22091</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18775</v>
       </c>
       <c r="L22" s="2"/>
@@ -3183,11 +3183,11 @@
         <v>2535</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" ref="AM22:AN22" si="17">+AM20-AM21</f>
+        <f t="shared" ref="AM22:AN22" si="19">+AM20-AM21</f>
         <v>4368</v>
       </c>
       <c r="AN22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>29760</v>
       </c>
       <c r="AO22" s="2">
@@ -3271,23 +3271,23 @@
         <v>33</v>
       </c>
       <c r="C24" s="9">
-        <f t="shared" ref="C24:G24" si="18">C22/C25</f>
+        <f t="shared" ref="C24:G24" si="20">C22/C25</f>
         <v>0.82712550607287449</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.25023252052246353</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.37451377633711508</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.49761036857027136</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.0442729488220959</v>
       </c>
       <c r="H24" s="9">
@@ -3295,15 +3295,15 @@
         <v>0.67536007811864274</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" ref="I24:K24" si="19">I22/I25</f>
+        <f t="shared" ref="I24:K24" si="21">I22/I25</f>
         <v>0.78706232421636169</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.89965383832213397</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.76817642485986659</v>
       </c>
       <c r="L24" s="9"/>
@@ -3334,11 +3334,11 @@
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
       <c r="AM24" s="9">
-        <f t="shared" ref="AJ24:AN24" si="20">+AM22/AM25</f>
+        <f t="shared" ref="AM24:AN24" si="22">+AM22/AM25</f>
         <v>0.17563329312424608</v>
       </c>
       <c r="AN24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.2053462940461726</v>
       </c>
       <c r="AO24" s="9">
@@ -3526,23 +3526,23 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="10">
-        <f t="shared" ref="G27:G34" si="21">G3/C3-1</f>
+        <f t="shared" ref="G27:G34" si="23">G3/C3-1</f>
         <v>4.2668067226890756</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" ref="H27:H34" si="22">H3/D3-1</f>
+        <f t="shared" ref="H27:H34" si="24">H3/D3-1</f>
         <v>1.5449966095127388</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" ref="I27:K33" si="23">I3/E3-1</f>
+        <f t="shared" ref="I27:K33" si="25">I3/E3-1</f>
         <v>1.1200909466721787</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.93327537491849588</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.73345743030625354</v>
       </c>
       <c r="L27" s="10"/>
@@ -3571,23 +3571,23 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="10" t="e">
-        <f t="shared" ref="AK27:AN33" si="24">+AK3/AJ3-1</f>
+        <f t="shared" ref="AK27:AN33" si="26">+AK3/AJ3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL27" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM27" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN27" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.1672775741419525</v>
       </c>
       <c r="AO27" s="10">
-        <f t="shared" ref="AO27:AO33" si="25">+AO3/AN3-1</f>
+        <f t="shared" ref="AO27:AO33" si="27">+AO3/AN3-1</f>
         <v>1.4236927932667016</v>
       </c>
       <c r="AP27" s="2"/>
@@ -3620,23 +3620,23 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.7765862377122428</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.6247097073850441</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.321464561639234</v>
       </c>
       <c r="J28" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.1598885424268559</v>
       </c>
       <c r="K28" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.76129331683168311</v>
       </c>
       <c r="L28" s="10"/>
@@ -3665,23 +3665,23 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL28" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM28" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN28" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.4417248387381814</v>
       </c>
       <c r="AO28" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.6237740693196407</v>
       </c>
       <c r="AP28" s="2"/>
@@ -3714,23 +3714,23 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.4207119741100325</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.1437755698421976</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.19992325402916356</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-9.2164515160612415E-2</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.56322926521602024</v>
       </c>
       <c r="L29" s="10"/>
@@ -3759,23 +3759,23 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL29" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM29" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN29" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.3251084598698482</v>
       </c>
       <c r="AO29" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.51486880466472296</v>
       </c>
       <c r="AP29" s="2"/>
@@ -3808,23 +3808,23 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.18169642857142865</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.15848753016894612</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.14810924369747891</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-0.11204188481675392</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.42160936909709101</v>
       </c>
       <c r="L30" s="10"/>
@@ -3853,23 +3853,23 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL30" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM30" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN30" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.15220028675416342</v>
       </c>
       <c r="AO30" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.643629750167503E-2</v>
       </c>
       <c r="AP30" s="2"/>
@@ -3902,23 +3902,23 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.44745762711864412</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.19788918205804751</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.16826923076923084</v>
       </c>
       <c r="J31" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.10367170626349886</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.19203747072599531</v>
       </c>
       <c r="L31" s="10"/>
@@ -3947,23 +3947,23 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL31" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM31" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.8290155440414715E-3</v>
       </c>
       <c r="AO31" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.20927237604636195</v>
       </c>
       <c r="AP31" s="2"/>
@@ -3996,23 +3996,23 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.1114864864864864</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.3359073359073359</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.72030651340996177</v>
       </c>
       <c r="J32" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0727272727272728</v>
       </c>
       <c r="K32" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.72340425531914887</v>
       </c>
       <c r="L32" s="10"/>
@@ -4041,23 +4041,23 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL32" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM32" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN32" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.20819490586932443</v>
       </c>
       <c r="AO32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.55270394133822176</v>
       </c>
       <c r="AP32" s="2"/>
@@ -4090,23 +4090,23 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.298701298701288E-2</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.32876712328767121</v>
       </c>
       <c r="J33" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="K33" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.42307692307692313</v>
       </c>
       <c r="L33" s="10"/>
@@ -4135,23 +4135,23 @@
       <c r="AI33" s="10"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL33" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM33" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN33" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-0.32747252747252742</v>
       </c>
       <c r="AO33" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.2712418300653594</v>
       </c>
       <c r="AP33" s="2"/>
@@ -4184,23 +4184,23 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.6212458286985538</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.2240319834160065</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" ref="I34:K34" si="26">I10/E10-1</f>
+        <f t="shared" ref="I34:K34" si="28">I10/E10-1</f>
         <v>0.93609271523178816</v>
       </c>
       <c r="J34" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.77944170474596208</v>
       </c>
       <c r="K34" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.69182921210259551</v>
       </c>
       <c r="L34" s="15"/>
@@ -4209,99 +4209,99 @@
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15">
-        <f t="shared" ref="Q34:AO34" si="27">+Q10/P10-1</f>
+        <f t="shared" ref="Q34:AN34" si="29">+Q10/P10-1</f>
         <v>0.96</v>
       </c>
       <c r="R34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.86258503401360542</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.39444850255661068</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-4.5049764274489257E-2</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.10257816785518381</v>
       </c>
       <c r="V34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.18208955223880596</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.29166666666666674</v>
       </c>
       <c r="X34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.33528836754643199</v>
       </c>
       <c r="Y34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-0.16422645192776963</v>
       </c>
       <c r="Z34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-2.8905109489051117E-2</v>
       </c>
       <c r="AA34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.5243535778713113E-2</v>
       </c>
       <c r="AB34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.12842224103866773</v>
       </c>
       <c r="AC34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.05352676338169E-2</v>
       </c>
       <c r="AD34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-3.5046728971962593E-2</v>
       </c>
       <c r="AE34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.13365617433414045</v>
       </c>
       <c r="AF34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.0055531824006811E-2</v>
       </c>
       <c r="AG34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.37924151696606789</v>
       </c>
       <c r="AH34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.40578871201157751</v>
       </c>
       <c r="AI34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.20609429689108505</v>
       </c>
       <c r="AJ34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-6.8111983612154314E-2</v>
       </c>
       <c r="AK34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.52729437625938824</v>
       </c>
       <c r="AL34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.61397301349325328</v>
       </c>
       <c r="AM34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.2665626277262874E-3</v>
       </c>
       <c r="AN34" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="AO34" s="15">
@@ -4334,39 +4334,39 @@
         <v>35</v>
       </c>
       <c r="C35" s="10">
-        <f t="shared" ref="C35:G35" si="28">C12/C10</f>
+        <f t="shared" ref="C35:G35" si="30">C12/C10</f>
         <v>0.64627363737486099</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.7005256533649219</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.73951434878587197</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.75967063294575399</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.78352019659038552</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" ref="H35:J35" si="29">H12/H10</f>
+        <f t="shared" ref="H35:J35" si="31">H12/H10</f>
         <v>0.75146471371504664</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.74556752750698363</v>
       </c>
       <c r="J35" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.73026365970862683</v>
       </c>
       <c r="K35" s="10">
-        <f t="shared" ref="K35" si="30">K12/K10</f>
+        <f t="shared" ref="K35" si="32">K12/K10</f>
         <v>0.60523807362353044</v>
       </c>
       <c r="L35" s="10"/>
@@ -4406,15 +4406,15 @@
         <v>#REF!</v>
       </c>
       <c r="AM35" s="10">
-        <f t="shared" ref="AJ35:AO35" si="31">AM12/AM10</f>
+        <f t="shared" ref="AM35:AO35" si="33">AM12/AM10</f>
         <v>0.56928894490991322</v>
       </c>
       <c r="AN35" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.72717573290436954</v>
       </c>
       <c r="AO35" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.74988697058169917</v>
       </c>
       <c r="AP35" s="2"/>
@@ -4443,39 +4443,39 @@
         <v>36</v>
       </c>
       <c r="C36" s="10">
-        <f t="shared" ref="C36:G36" si="32">C16/C10</f>
+        <f t="shared" ref="C36:G36" si="34">C16/C10</f>
         <v>0.29755283648498332</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.50344265936181243</v>
       </c>
       <c r="E36" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.5748896247240618</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.61597973125820027</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.64924742743050223</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" ref="H36:J36" si="33">H16/H10</f>
+        <f t="shared" ref="H36:J36" si="35">H16/H10</f>
         <v>0.62057256990679099</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.62336810900176731</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.61104472299204193</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" ref="K36" si="34">K16/K10</f>
+        <f t="shared" ref="K36" si="36">K16/K10</f>
         <v>0.49108074985248057</v>
       </c>
       <c r="L36" s="10"/>
@@ -4515,15 +4515,15 @@
         <v>#REF!</v>
       </c>
       <c r="AM36" s="10">
-        <f t="shared" ref="AJ36:AO36" si="35">AM16/AM10</f>
+        <f t="shared" ref="AM36:AO36" si="37">AM16/AM10</f>
         <v>0.1565952398606065</v>
       </c>
       <c r="AN36" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.54121663766783756</v>
       </c>
       <c r="AO36" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.62417526839697468</v>
       </c>
       <c r="AP36" s="2"/>
@@ -4552,39 +4552,39 @@
         <v>37</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" ref="C37:G37" si="36">C21/C20</f>
+        <f t="shared" ref="C37:G37" si="38">C21/C20</f>
         <v>7.5147125396106837E-2</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.11359404096834265</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.12155483748336818</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.12902311073302142</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.13878117946640431</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" ref="H37:J37" si="37">H21/H20</f>
+        <f t="shared" ref="H37:J37" si="39">H21/H20</f>
         <v>0.1360986780472572</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.13474637031726117</v>
       </c>
       <c r="J37" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.1239639925447119</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" ref="K37" si="38">K21/K20</f>
+        <f t="shared" ref="K37" si="40">K21/K20</f>
         <v>0.1430853491556367</v>
       </c>
       <c r="L37" s="10"/>
@@ -4624,15 +4624,15 @@
         <v>#REF!</v>
       </c>
       <c r="AM37" s="10">
-        <f t="shared" ref="AJ37:AO37" si="39">AM21/AM20</f>
+        <f t="shared" ref="AM37:AO37" si="41">AM21/AM20</f>
         <v>-4.4726142071274816E-2</v>
       </c>
       <c r="AN37" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.1199952687917677</v>
       </c>
       <c r="AO37" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.13264941803727417</v>
       </c>
       <c r="AP37" s="2"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2E0FA2-25DA-467E-BB8B-677F80E24BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3E8D39-6C5F-4121-9197-13BFA4C936F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>NVIDIA</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Q125</t>
   </si>
   <si>
-    <t>Q225</t>
-  </si>
-  <si>
     <t>Other Income</t>
   </si>
   <si>
@@ -351,6 +348,66 @@
   <si>
     <t>FY25</t>
   </si>
+  <si>
+    <t>Cash &amp;Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Marketable Securities</t>
+  </si>
+  <si>
+    <t>Accounts Receivables</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaid Expenses</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Operating Leases</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Deffered Taxes</t>
+  </si>
+  <si>
+    <t>Other Assets</t>
+  </si>
+  <si>
+    <t>Non-Current Assets</t>
+  </si>
+  <si>
+    <t>Total Liabilities &amp; Equity</t>
+  </si>
+  <si>
+    <t>Accounts Payables</t>
+  </si>
+  <si>
+    <t>Current Liabilties</t>
+  </si>
+  <si>
+    <t>Long-term debt</t>
+  </si>
+  <si>
+    <t>Non-Current Liabilities</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
 </sst>
 </file>
 
@@ -361,13 +418,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -452,39 +515,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -823,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125CF797-C781-42AA-B03B-D2923324776E}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -858,8 +925,8 @@
       <c r="I3" s="6">
         <v>24366</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>64</v>
+      <c r="J3" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -885,8 +952,8 @@
         <f>11639+45152</f>
         <v>56791</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>64</v>
+      <c r="J5" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -896,8 +963,8 @@
       <c r="I6" s="6">
         <v>8466</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>64</v>
+      <c r="J6" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -940,7 +1007,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -952,11 +1019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E7FD93-400A-4B64-9637-988319BC69BE}">
   <dimension ref="A1:BO384"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,71 +1067,71 @@
         <v>63</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="AI2" s="5" t="s">
         <v>44</v>
@@ -1085,7 +1152,7 @@
         <v>49</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
@@ -1594,7 +1661,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="8">
         <v>4460</v>
@@ -1670,7 +1737,7 @@
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="8">
         <v>2732</v>
@@ -2984,7 +3051,7 @@
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6">
         <v>-15</v>
@@ -5215,7 +5282,7 @@
     </row>
     <row r="40" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -5337,6 +5404,9 @@
       <c r="BH41" s="6"/>
     </row>
     <row r="42" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B42" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -5346,7 +5416,9 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="L42" s="6">
+        <v>11639</v>
+      </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
@@ -5397,6 +5469,9 @@
       <c r="BH42" s="6"/>
     </row>
     <row r="43" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B43" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -5406,7 +5481,9 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="L43" s="6">
+        <v>45152</v>
+      </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -5457,6 +5534,9 @@
       <c r="BH43" s="6"/>
     </row>
     <row r="44" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B44" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -5466,7 +5546,9 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="L44" s="6">
+        <v>27808</v>
+      </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -5517,6 +5599,9 @@
       <c r="BH44" s="6"/>
     </row>
     <row r="45" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B45" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -5526,7 +5611,9 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="L45" s="6">
+        <v>14962</v>
+      </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
@@ -5577,6 +5664,9 @@
       <c r="BH45" s="6"/>
     </row>
     <row r="46" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B46" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -5586,7 +5676,9 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="L46" s="6">
+        <v>2658</v>
+      </c>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
@@ -5637,16 +5729,49 @@
       <c r="BH46" s="6"/>
     </row>
     <row r="47" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="B47" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="6">
+        <f t="shared" ref="C47:K47" si="49">+SUM(C42:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <f>+SUM(L42:L46)</f>
+        <v>102219</v>
+      </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
@@ -5697,6 +5822,9 @@
       <c r="BH47" s="6"/>
     </row>
     <row r="48" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B48" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -5706,7 +5834,9 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="L48" s="6">
+        <v>9141</v>
+      </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
@@ -5756,7 +5886,10 @@
       <c r="BG48" s="6"/>
       <c r="BH48" s="6"/>
     </row>
-    <row r="49" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B49" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -5766,7 +5899,9 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="L49" s="6">
+        <v>2084</v>
+      </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
@@ -5816,7 +5951,10 @@
       <c r="BG49" s="6"/>
       <c r="BH49" s="6"/>
     </row>
-    <row r="50" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B50" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -5826,7 +5964,9 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="L50" s="6">
+        <v>5755</v>
+      </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
@@ -5876,7 +6016,10 @@
       <c r="BG50" s="6"/>
       <c r="BH50" s="6"/>
     </row>
-    <row r="51" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B51" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -5886,7 +6029,9 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+      <c r="L51" s="6">
+        <v>755</v>
+      </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -5936,7 +6081,10 @@
       <c r="BG51" s="6"/>
       <c r="BH51" s="6"/>
     </row>
-    <row r="52" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B52" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -5946,7 +6094,9 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="L52" s="6">
+        <v>13570</v>
+      </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
@@ -5996,7 +6146,10 @@
       <c r="BG52" s="6"/>
       <c r="BH52" s="6"/>
     </row>
-    <row r="53" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B53" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -6006,7 +6159,9 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="L53" s="6">
+        <v>7216</v>
+      </c>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -6056,7 +6211,10 @@
       <c r="BG53" s="6"/>
       <c r="BH53" s="6"/>
     </row>
-    <row r="54" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B54" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -6066,7 +6224,10 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="L54" s="6">
+        <f>+SUM(L48:L53)</f>
+        <v>38521</v>
+      </c>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -6116,17 +6277,50 @@
       <c r="BG54" s="6"/>
       <c r="BH54" s="6"/>
     </row>
-    <row r="55" spans="3:60" x14ac:dyDescent="0.2">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+    <row r="55" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B55" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="11">
+        <f t="shared" ref="C55:K55" si="50">+C54+C47</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="11">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="11">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="11">
+        <f>+L54+L47</f>
+        <v>140740</v>
+      </c>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
@@ -6176,7 +6370,10 @@
       <c r="BG55" s="6"/>
       <c r="BH55" s="6"/>
     </row>
-    <row r="56" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B56" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -6186,7 +6383,9 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="L56" s="6">
+        <v>9064</v>
+      </c>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -6236,7 +6435,10 @@
       <c r="BG56" s="6"/>
       <c r="BH56" s="6"/>
     </row>
-    <row r="57" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B57" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -6246,7 +6448,9 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+      <c r="L57" s="6">
+        <v>15193</v>
+      </c>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -6296,7 +6500,10 @@
       <c r="BG57" s="6"/>
       <c r="BH57" s="6"/>
     </row>
-    <row r="58" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B58" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -6306,7 +6513,10 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
+      <c r="L58" s="6">
+        <f>+L56+L57</f>
+        <v>24257</v>
+      </c>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
@@ -6356,7 +6566,10 @@
       <c r="BG58" s="6"/>
       <c r="BH58" s="6"/>
     </row>
-    <row r="59" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B59" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -6366,7 +6579,9 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
+      <c r="L59" s="6">
+        <v>8466</v>
+      </c>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
@@ -6416,7 +6631,10 @@
       <c r="BG59" s="6"/>
       <c r="BH59" s="6"/>
     </row>
-    <row r="60" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B60" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -6426,7 +6644,9 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
+      <c r="L60" s="6">
+        <v>1831</v>
+      </c>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
@@ -6476,7 +6696,10 @@
       <c r="BG60" s="6"/>
       <c r="BH60" s="6"/>
     </row>
-    <row r="61" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B61" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -6486,7 +6709,9 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
+      <c r="L61" s="6">
+        <v>6055</v>
+      </c>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
@@ -6536,7 +6761,10 @@
       <c r="BG61" s="6"/>
       <c r="BH61" s="6"/>
     </row>
-    <row r="62" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B62" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -6546,7 +6774,10 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+      <c r="L62" s="6">
+        <f>+SUM(L59:L61)</f>
+        <v>16352</v>
+      </c>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
@@ -6596,7 +6827,10 @@
       <c r="BG62" s="6"/>
       <c r="BH62" s="6"/>
     </row>
-    <row r="63" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B63" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -6606,7 +6840,9 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
+      <c r="L63" s="6">
+        <v>100131</v>
+      </c>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -6656,17 +6892,50 @@
       <c r="BG63" s="6"/>
       <c r="BH63" s="6"/>
     </row>
-    <row r="64" spans="3:60" x14ac:dyDescent="0.2">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
+    <row r="64" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B64" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="11">
+        <f t="shared" ref="C64:K64" si="51">+C63+C62+C58</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
+        <f>+L63+L62+L58</f>
+        <v>140740</v>
+      </c>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
@@ -6716,7 +6985,7 @@
       <c r="BG64" s="6"/>
       <c r="BH64" s="6"/>
     </row>
-    <row r="65" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -6776,7 +7045,10 @@
       <c r="BG65" s="6"/>
       <c r="BH65" s="6"/>
     </row>
-    <row r="66" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B66" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -6836,7 +7108,7 @@
       <c r="BG66" s="6"/>
       <c r="BH66" s="6"/>
     </row>
-    <row r="67" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -6896,7 +7168,7 @@
       <c r="BG67" s="6"/>
       <c r="BH67" s="6"/>
     </row>
-    <row r="68" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -6956,7 +7228,7 @@
       <c r="BG68" s="6"/>
       <c r="BH68" s="6"/>
     </row>
-    <row r="69" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -7016,7 +7288,7 @@
       <c r="BG69" s="6"/>
       <c r="BH69" s="6"/>
     </row>
-    <row r="70" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -7076,7 +7348,7 @@
       <c r="BG70" s="6"/>
       <c r="BH70" s="6"/>
     </row>
-    <row r="71" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -7136,7 +7408,7 @@
       <c r="BG71" s="6"/>
       <c r="BH71" s="6"/>
     </row>
-    <row r="72" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -7196,7 +7468,7 @@
       <c r="BG72" s="6"/>
       <c r="BH72" s="6"/>
     </row>
-    <row r="73" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -7256,7 +7528,7 @@
       <c r="BG73" s="6"/>
       <c r="BH73" s="6"/>
     </row>
-    <row r="74" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -7316,7 +7588,7 @@
       <c r="BG74" s="6"/>
       <c r="BH74" s="6"/>
     </row>
-    <row r="75" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -7376,7 +7648,7 @@
       <c r="BG75" s="6"/>
       <c r="BH75" s="6"/>
     </row>
-    <row r="76" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -7436,7 +7708,7 @@
       <c r="BG76" s="6"/>
       <c r="BH76" s="6"/>
     </row>
-    <row r="77" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -7496,7 +7768,7 @@
       <c r="BG77" s="6"/>
       <c r="BH77" s="6"/>
     </row>
-    <row r="78" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -7556,7 +7828,7 @@
       <c r="BG78" s="6"/>
       <c r="BH78" s="6"/>
     </row>
-    <row r="79" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -7616,7 +7888,7 @@
       <c r="BG79" s="6"/>
       <c r="BH79" s="6"/>
     </row>
-    <row r="80" spans="3:60" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3E8D39-6C5F-4121-9197-13BFA4C936F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D623A-F688-4926-8C67-FF6D3476C948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
     <t>NVIDIA</t>
   </si>
@@ -408,6 +408,9 @@
   <si>
     <t>Equity</t>
   </si>
+  <si>
+    <t>AI-Economy:</t>
+  </si>
 </sst>
 </file>
 
@@ -569,6 +572,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{690D1AAB-DAE7-7750-1DF6-3D3872BCEBBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="2752725"/>
+          <a:ext cx="4258975" cy="5205413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -888,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125CF797-C781-42AA-B03B-D2923324776E}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J6"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1010,8 +1068,14 @@
         <v>85</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1019,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E7FD93-400A-4B64-9637-988319BC69BE}">
   <dimension ref="A1:BO384"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D623A-F688-4926-8C67-FF6D3476C948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECA41C1-1F3C-463F-9585-8147DFB76F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -949,7 +949,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -973,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="15">
-        <v>179.56</v>
+        <v>203.4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
       </c>
       <c r="I4" s="6">
         <f>I2*I3</f>
-        <v>4375158.96</v>
+        <v>4956044.4000000004</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I7" s="6">
         <f>I4-I5+I6</f>
-        <v>4326833.96</v>
+        <v>4907719.4000000004</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECA41C1-1F3C-463F-9585-8147DFB76F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F4D1C-EFA0-43DC-A20E-02886B361AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -421,13 +421,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -518,43 +524,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -948,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125CF797-C781-42AA-B03B-D2923324776E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -973,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="15">
-        <v>203.4</v>
+        <v>179.37</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -981,10 +987,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="6">
-        <v>24366</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>88</v>
+        <v>24300</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -996,7 +1002,7 @@
       </c>
       <c r="I4" s="6">
         <f>I2*I3</f>
-        <v>4956044.4000000004</v>
+        <v>4358691</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1007,11 +1013,11 @@
         <v>6</v>
       </c>
       <c r="I5" s="6">
-        <f>11639+45152</f>
-        <v>56791</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>88</v>
+        <f>11486+49122</f>
+        <v>60608</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1019,10 +1025,11 @@
         <v>7</v>
       </c>
       <c r="I6" s="6">
-        <v>8466</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>88</v>
+        <f>999+7468</f>
+        <v>8467</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1037,7 +1044,7 @@
       </c>
       <c r="I7" s="6">
         <f>I4-I5+I6</f>
-        <v>4907719.4000000004</v>
+        <v>4306550</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1083,11 +1090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E7FD93-400A-4B64-9637-988319BC69BE}">
   <dimension ref="A1:BO384"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L67" sqref="L67"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1255,7 +1262,9 @@
       <c r="L3" s="6">
         <v>41096</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6">
+        <v>51215</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1327,7 +1336,9 @@
       <c r="L4" s="6">
         <v>33844</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6">
+        <v>43028</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -1399,7 +1410,9 @@
       <c r="L5" s="6">
         <v>7252</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6">
+        <v>8187</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1471,7 +1484,9 @@
       <c r="L6" s="6">
         <v>4287</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6">
+        <v>4265</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1543,7 +1558,9 @@
       <c r="L7" s="6">
         <v>601</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6">
+        <v>760</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1615,7 +1632,9 @@
       <c r="L8" s="6">
         <v>586</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <v>592</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1687,7 +1706,9 @@
       <c r="L9" s="6">
         <v>173</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6">
+        <v>174</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1754,8 +1775,12 @@
       <c r="K10" s="8">
         <v>39589</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="L10" s="6">
+        <v>41331</v>
+      </c>
+      <c r="M10" s="6">
+        <v>50908</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="9"/>
@@ -1830,8 +1855,12 @@
       <c r="K11" s="8">
         <v>4473</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="6">
+        <v>5412</v>
+      </c>
+      <c r="M11" s="6">
+        <v>6098</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="8"/>
@@ -1911,7 +1940,9 @@
       <c r="L12" s="11">
         <v>46743</v>
       </c>
-      <c r="M12" s="11"/>
+      <c r="M12" s="11">
+        <v>57006</v>
+      </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="1">
@@ -2039,7 +2070,9 @@
       <c r="L13" s="6">
         <v>12890</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6">
+        <v>15157</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="9">
@@ -2159,7 +2192,7 @@
         <v>22574</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" ref="I14:L14" si="4">+I12-I13</f>
+        <f t="shared" ref="I14:M14" si="4">+I12-I13</f>
         <v>26156</v>
       </c>
       <c r="J14" s="6">
@@ -2174,7 +2207,10 @@
         <f t="shared" si="4"/>
         <v>33853</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6">
+        <f t="shared" si="4"/>
+        <v>41849</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="9">
@@ -2324,7 +2360,9 @@
       <c r="L15" s="6">
         <v>4291</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6">
+        <v>4705</v>
+      </c>
       <c r="N15" s="12"/>
       <c r="O15" s="6"/>
       <c r="P15" s="9"/>
@@ -2445,7 +2483,9 @@
       <c r="L16" s="6">
         <v>1122</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6">
+        <v>1134</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="9"/>
@@ -2566,7 +2606,9 @@
       <c r="L17" s="6">
         <v>0</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="9">
@@ -2710,7 +2752,7 @@
         <v>21869</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" ref="J18:L18" si="16">+J14-J15-J16-J17</f>
+        <f t="shared" ref="J18:M18" si="16">+J14-J15-J16-J17</f>
         <v>24033</v>
       </c>
       <c r="K18" s="6">
@@ -2721,7 +2763,10 @@
         <f t="shared" si="16"/>
         <v>28440</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="6">
+        <f t="shared" si="16"/>
+        <v>36010</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="9">
@@ -2871,7 +2916,9 @@
       <c r="L19" s="6">
         <v>592</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="6">
+        <v>624</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="9">
@@ -3002,7 +3049,9 @@
       <c r="L20" s="6">
         <v>62</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="6">
+        <v>61</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="9">
@@ -3149,7 +3198,9 @@
       <c r="L21" s="6">
         <v>2236</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="6">
+        <v>1363</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="9">
@@ -3269,7 +3320,7 @@
         <v>19214</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" ref="I22:L22" si="21">+I18+I19-I20+I21</f>
+        <f t="shared" ref="I22:M22" si="21">+I18+I19-I20+I21</f>
         <v>22316</v>
       </c>
       <c r="J22" s="6">
@@ -3284,7 +3335,10 @@
         <f t="shared" si="21"/>
         <v>31206</v>
       </c>
-      <c r="M22" s="6"/>
+      <c r="M22" s="6">
+        <f t="shared" si="21"/>
+        <v>37936</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="9">
@@ -3434,7 +3488,9 @@
       <c r="L23" s="6">
         <v>4784</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="6">
+        <v>6026</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6">
@@ -3554,7 +3610,7 @@
         <v>16599</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" ref="I24:L24" si="25">+I22-I23</f>
+        <f t="shared" ref="I24:M24" si="25">+I22-I23</f>
         <v>19309</v>
       </c>
       <c r="J24" s="6">
@@ -3569,7 +3625,10 @@
         <f t="shared" si="25"/>
         <v>26422</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="6">
+        <f t="shared" si="25"/>
+        <v>31910</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6">
@@ -3752,7 +3811,7 @@
         <v>0.67536007811864274</v>
       </c>
       <c r="I26" s="13">
-        <f t="shared" ref="I26:L26" si="28">I24/I27</f>
+        <f t="shared" ref="I26:M26" si="28">I24/I27</f>
         <v>0.78706232421636169</v>
       </c>
       <c r="J26" s="13">
@@ -3767,7 +3826,10 @@
         <f t="shared" si="28"/>
         <v>1.0843798735943528</v>
       </c>
-      <c r="M26" s="13"/>
+      <c r="M26" s="13">
+        <f t="shared" si="28"/>
+        <v>1.3117112673161508</v>
+      </c>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13">
@@ -3930,7 +3992,9 @@
       <c r="L27" s="6">
         <v>24366</v>
       </c>
-      <c r="M27" s="6"/>
+      <c r="M27" s="6">
+        <v>24327</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="9">
@@ -4100,7 +4164,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="12">
-        <f t="shared" ref="G29:L35" si="31">G3/C3-1</f>
+        <f t="shared" ref="G29:M35" si="31">G3/C3-1</f>
         <v>4.2668067226890756</v>
       </c>
       <c r="H29" s="12">
@@ -4123,7 +4187,10 @@
         <f t="shared" si="31"/>
         <v>0.56425091352009749</v>
       </c>
-      <c r="M29" s="12"/>
+      <c r="M29" s="12">
+        <f t="shared" si="31"/>
+        <v>0.66439179747164534</v>
+      </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
@@ -4203,7 +4270,10 @@
         <f t="shared" si="31"/>
         <v>0.49725712263316235</v>
       </c>
-      <c r="M30" s="12"/>
+      <c r="M30" s="12">
+        <f t="shared" si="31"/>
+        <v>0.55650412386051218</v>
+      </c>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -4287,7 +4357,10 @@
         <f t="shared" si="31"/>
         <v>0.97709923664122145</v>
       </c>
-      <c r="M31" s="12"/>
+      <c r="M31" s="12">
+        <f t="shared" si="31"/>
+        <v>1.618164374800128</v>
+      </c>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
@@ -4371,7 +4444,10 @@
         <f t="shared" si="31"/>
         <v>0.48854166666666665</v>
       </c>
-      <c r="M32" s="12"/>
+      <c r="M32" s="12">
+        <f t="shared" si="31"/>
+        <v>0.30070143336383048</v>
+      </c>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
@@ -4455,7 +4531,10 @@
         <f t="shared" si="31"/>
         <v>0.32378854625550657</v>
       </c>
-      <c r="M33" s="12"/>
+      <c r="M33" s="12">
+        <f t="shared" si="31"/>
+        <v>0.56378600823045266</v>
+      </c>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
@@ -4539,7 +4618,10 @@
         <f t="shared" si="31"/>
         <v>0.69364161849710992</v>
       </c>
-      <c r="M34" s="12"/>
+      <c r="M34" s="12">
+        <f t="shared" si="31"/>
+        <v>0.31848552338530056</v>
+      </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
@@ -4623,7 +4705,10 @@
         <f t="shared" si="31"/>
         <v>0.96590909090909083</v>
       </c>
-      <c r="M35" s="12"/>
+      <c r="M35" s="12">
+        <f t="shared" si="31"/>
+        <v>0.79381443298969079</v>
+      </c>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
@@ -4692,7 +4777,7 @@
         <v>1.2240319834160065</v>
       </c>
       <c r="I36" s="14">
-        <f t="shared" ref="I36:L36" si="35">I12/E12-1</f>
+        <f t="shared" ref="I36:M36" si="35">I12/E12-1</f>
         <v>0.93609271523178816</v>
       </c>
       <c r="J36" s="14">
@@ -4707,7 +4792,10 @@
         <f t="shared" si="35"/>
         <v>0.5560252996005326</v>
       </c>
-      <c r="M36" s="14"/>
+      <c r="M36" s="14">
+        <f t="shared" si="35"/>
+        <v>0.62493586454592109</v>
+      </c>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
@@ -4875,111 +4963,114 @@
         <f t="shared" si="39"/>
         <v>0.72423678411740799</v>
       </c>
-      <c r="M37" s="12"/>
+      <c r="M37" s="12">
+        <f t="shared" ref="M37" si="40">M14/M12</f>
+        <v>0.7341157071185489</v>
+      </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12">
-        <f t="shared" ref="P37:AO37" si="40">P14/P12</f>
+        <f t="shared" ref="P37:AO37" si="41">P14/P12</f>
         <v>0.62125205270957662</v>
       </c>
       <c r="Q37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.62886935848892367</v>
       </c>
       <c r="R37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.6208477580029077</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.30489246362952205</v>
       </c>
       <c r="T37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.29012285066197824</v>
       </c>
       <c r="U37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.3231220581950644</v>
       </c>
       <c r="V37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.38306098404377342</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.42376866830402143</v>
       </c>
       <c r="X37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.45616004451103742</v>
       </c>
       <c r="Y37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.34286637785672341</v>
       </c>
       <c r="Z37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.35380804432359475</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.39767629636591112</v>
       </c>
       <c r="AB37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.51439544964519135</v>
       </c>
       <c r="AC37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.52015427464260089</v>
       </c>
       <c r="AD37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.54915254237288136</v>
       </c>
       <c r="AE37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.55510465612985904</v>
       </c>
       <c r="AF37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.56107784431137719</v>
       </c>
       <c r="AG37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.58798842257597683</v>
       </c>
       <c r="AH37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.59934115709285563</v>
       </c>
       <c r="AI37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.50479407278274135</v>
       </c>
       <c r="AJ37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.61989375343469499</v>
       </c>
       <c r="AK37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.62344827586206897</v>
       </c>
       <c r="AL37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.64924014416824583</v>
       </c>
       <c r="AM37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.56928894490991322</v>
       </c>
       <c r="AN37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.72717573290436954</v>
       </c>
       <c r="AO37" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.74988697058169917</v>
       </c>
       <c r="AP37" s="6"/>
@@ -5007,150 +5098,153 @@
         <v>36</v>
       </c>
       <c r="C38" s="12">
-        <f t="shared" ref="C38:G38" si="41">C18/C12</f>
+        <f t="shared" ref="C38:G38" si="42">C18/C12</f>
         <v>0.29755283648498332</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.50344265936181243</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.5748896247240618</v>
       </c>
       <c r="F38" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.61597973125820027</v>
       </c>
       <c r="G38" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.64924742743050223</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" ref="H38:J38" si="42">H18/H12</f>
+        <f t="shared" ref="H38:J38" si="43">H18/H12</f>
         <v>0.62057256990679099</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.62336810900176731</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.61104472299204193</v>
       </c>
       <c r="K38" s="12">
-        <f t="shared" ref="K38:L38" si="43">K18/K12</f>
+        <f t="shared" ref="K38:L38" si="44">K18/K12</f>
         <v>0.49108074985248057</v>
       </c>
       <c r="L38" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.60843334830883766</v>
       </c>
-      <c r="M38" s="12"/>
+      <c r="M38" s="12">
+        <f t="shared" ref="M38" si="45">M18/M12</f>
+        <v>0.63168789250254365</v>
+      </c>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12">
-        <f t="shared" ref="P38:AO38" si="44">P18/P12</f>
+        <f t="shared" ref="P38:AO38" si="46">P18/P12</f>
         <v>0.62125205270957662</v>
       </c>
       <c r="Q38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.62886935848892367</v>
       </c>
       <c r="R38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.6208477580029077</v>
       </c>
       <c r="S38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.10778932329622133</v>
       </c>
       <c r="T38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.1376755744139253E-2</v>
       </c>
       <c r="U38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.651300252284408E-2</v>
       </c>
       <c r="V38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.14767181030160956</v>
       </c>
       <c r="W38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.14776338801428987</v>
       </c>
       <c r="X38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.20409335604437434</v>
       </c>
       <c r="Y38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-1.2798191108013595E-2</v>
       </c>
       <c r="Z38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-2.9744967976322981E-2</v>
       </c>
       <c r="AA38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.6090789710973574E-2</v>
       </c>
       <c r="AB38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.1621586671102295</v>
       </c>
       <c r="AC38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.15145208390622875</v>
       </c>
       <c r="AD38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.12009685230024213</v>
       </c>
       <c r="AE38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.16211020931225972</v>
       </c>
       <c r="AF38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.17524950099800399</v>
       </c>
       <c r="AG38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.28031837916063673</v>
       </c>
       <c r="AH38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.33045089561457691</v>
       </c>
       <c r="AI38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.13793854870342123</v>
       </c>
       <c r="AJ38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.2606704524638212</v>
       </c>
       <c r="AK38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.27178410794602698</v>
       </c>
       <c r="AL38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.37305391446512837</v>
       </c>
       <c r="AM38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.1565952398606065</v>
       </c>
       <c r="AN38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.54121663766783756</v>
       </c>
       <c r="AO38" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.62417526839697468</v>
       </c>
       <c r="AP38" s="6"/>
@@ -5178,150 +5272,153 @@
         <v>37</v>
       </c>
       <c r="C39" s="12">
-        <f t="shared" ref="C39:G39" si="45">C23/C22</f>
+        <f t="shared" ref="C39:G39" si="47">C23/C22</f>
         <v>7.5147125396106837E-2</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.11359404096834265</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.12155483748336818</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.12902311073302142</v>
       </c>
       <c r="G39" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.13878117946640431</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" ref="H39:J39" si="46">H23/H22</f>
+        <f t="shared" ref="H39:J39" si="48">H23/H22</f>
         <v>0.1360986780472572</v>
       </c>
       <c r="I39" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.13474637031726117</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.1239639925447119</v>
       </c>
       <c r="K39" s="12">
-        <f t="shared" ref="K39:L39" si="47">K23/K22</f>
+        <f t="shared" ref="K39:L39" si="49">K23/K22</f>
         <v>0.1430853491556367</v>
       </c>
       <c r="L39" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.15330385182336731</v>
       </c>
-      <c r="M39" s="12"/>
+      <c r="M39" s="12">
+        <f t="shared" ref="M39" si="50">M23/M22</f>
+        <v>0.15884647827920709</v>
+      </c>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12">
-        <f t="shared" ref="P39:AO39" si="48">P23/P22</f>
+        <f t="shared" ref="P39:AO39" si="51">P23/P22</f>
         <v>5.9138414478715267E-3</v>
       </c>
       <c r="Q39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>5.9407382012947518E-3</v>
       </c>
       <c r="R39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>5.9356954041987374E-3</v>
       </c>
       <c r="S39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>5.9655298689946044E-3</v>
       </c>
       <c r="T39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>5.8020887519507061E-3</v>
       </c>
       <c r="U39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>5.7042211236314954E-3</v>
       </c>
       <c r="V39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.9625967053699188E-3</v>
       </c>
       <c r="W39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.692944431326599E-3</v>
       </c>
       <c r="X39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.643789549764788E-3</v>
       </c>
       <c r="Y39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Z39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.8462349993406376E-3</v>
       </c>
       <c r="AA39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.6824202379859894E-3</v>
       </c>
       <c r="AB39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.6176495895644401E-3</v>
       </c>
       <c r="AC39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.5998976065531808E-3</v>
       </c>
       <c r="AD39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.6818181818181819E-3</v>
       </c>
       <c r="AE39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.7719568567026193E-3</v>
       </c>
       <c r="AF39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.7583892617449666E-3</v>
       </c>
       <c r="AG39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.5398442180946674E-3</v>
       </c>
       <c r="AH39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.5818838201509683E-3</v>
       </c>
       <c r="AI39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>4.1359950093574549E-3</v>
       </c>
       <c r="AJ39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>4.0414878397711013E-4</v>
       </c>
       <c r="AK39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>3.9935364727608497E-4</v>
       </c>
       <c r="AL39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>3.9479081214109928E-4</v>
       </c>
       <c r="AM39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-4.4726142071274816E-2</v>
       </c>
       <c r="AN39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.1199952687917677</v>
       </c>
       <c r="AO39" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.13264941803727417</v>
       </c>
       <c r="AP39" s="6"/>
@@ -5468,7 +5565,7 @@
       <c r="BH41" s="6"/>
     </row>
     <row r="42" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C42" s="6"/>
@@ -5533,7 +5630,7 @@
       <c r="BH42" s="6"/>
     </row>
     <row r="43" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C43" s="6"/>
@@ -5598,7 +5695,7 @@
       <c r="BH43" s="6"/>
     </row>
     <row r="44" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="6"/>
@@ -5663,7 +5760,7 @@
       <c r="BH44" s="6"/>
     </row>
     <row r="45" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C45" s="6"/>
@@ -5728,7 +5825,7 @@
       <c r="BH45" s="6"/>
     </row>
     <row r="46" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="6"/>
@@ -5793,43 +5890,43 @@
       <c r="BH46" s="6"/>
     </row>
     <row r="47" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" ref="C47:K47" si="49">+SUM(C42:C46)</f>
+        <f t="shared" ref="C47:K47" si="52">+SUM(C42:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="L47" s="6">
@@ -5886,7 +5983,7 @@
       <c r="BH47" s="6"/>
     </row>
     <row r="48" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="6"/>
@@ -5951,7 +6048,7 @@
       <c r="BH48" s="6"/>
     </row>
     <row r="49" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C49" s="6"/>
@@ -6016,7 +6113,7 @@
       <c r="BH49" s="6"/>
     </row>
     <row r="50" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C50" s="6"/>
@@ -6081,7 +6178,7 @@
       <c r="BH50" s="6"/>
     </row>
     <row r="51" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="6"/>
@@ -6146,7 +6243,7 @@
       <c r="BH51" s="6"/>
     </row>
     <row r="52" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="19" t="s">
         <v>103</v>
       </c>
       <c r="C52" s="6"/>
@@ -6211,7 +6308,7 @@
       <c r="BH52" s="6"/>
     </row>
     <row r="53" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C53" s="6"/>
@@ -6276,7 +6373,7 @@
       <c r="BH53" s="6"/>
     </row>
     <row r="54" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="19" t="s">
         <v>105</v>
       </c>
       <c r="C54" s="6"/>
@@ -6346,39 +6443,39 @@
         <v>98</v>
       </c>
       <c r="C55" s="11">
-        <f t="shared" ref="C55:K55" si="50">+C54+C47</f>
+        <f t="shared" ref="C55:K55" si="53">+C54+C47</f>
         <v>0</v>
       </c>
       <c r="D55" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F55" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H55" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="J55" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L55" s="11">
@@ -6435,7 +6532,7 @@
       <c r="BH55" s="6"/>
     </row>
     <row r="56" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="6"/>
@@ -6500,7 +6597,7 @@
       <c r="BH56" s="6"/>
     </row>
     <row r="57" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C57" s="6"/>
@@ -6565,7 +6662,7 @@
       <c r="BH57" s="6"/>
     </row>
     <row r="58" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="19" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="6"/>
@@ -6631,7 +6728,7 @@
       <c r="BH58" s="6"/>
     </row>
     <row r="59" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>109</v>
       </c>
       <c r="C59" s="6"/>
@@ -6696,7 +6793,7 @@
       <c r="BH59" s="6"/>
     </row>
     <row r="60" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C60" s="6"/>
@@ -6761,7 +6858,7 @@
       <c r="BH60" s="6"/>
     </row>
     <row r="61" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="6"/>
@@ -6826,7 +6923,7 @@
       <c r="BH61" s="6"/>
     </row>
     <row r="62" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
         <v>110</v>
       </c>
       <c r="C62" s="6"/>
@@ -6892,7 +6989,7 @@
       <c r="BH62" s="6"/>
     </row>
     <row r="63" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C63" s="6"/>
@@ -6961,39 +7058,39 @@
         <v>106</v>
       </c>
       <c r="C64" s="11">
-        <f t="shared" ref="C64:K64" si="51">+C63+C62+C58</f>
+        <f t="shared" ref="C64:K64" si="54">+C63+C62+C58</f>
         <v>0</v>
       </c>
       <c r="D64" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="E64" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="G64" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I64" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J64" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L64" s="11">
@@ -7110,7 +7207,7 @@
       <c r="BH65" s="6"/>
     </row>
     <row r="66" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C66" s="6"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F4D1C-EFA0-43DC-A20E-02886B361AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A148AF-F1EC-4C7F-BECA-679C157F4CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
+    <workbookView xWindow="225" yWindow="3855" windowWidth="38175" windowHeight="15240" xr2:uid="{A1D5ACA9-E4BA-4D51-A2F0-408DF60F7C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
   <si>
     <t>NVIDIA</t>
   </si>
@@ -411,6 +411,9 @@
   <si>
     <t>AI-Economy:</t>
   </si>
+  <si>
+    <t>"Acquired! Groq for 20$ billion</t>
+  </si>
 </sst>
 </file>
 
@@ -421,13 +424,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -524,43 +533,44 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -954,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125CF797-C781-42AA-B03B-D2923324776E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1075,6 +1085,11 @@
         <v>85</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>112</v>
@@ -1090,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E7FD93-400A-4B64-9637-988319BC69BE}">
   <dimension ref="A1:BO384"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
